--- a/uploads/excel/bulk_upload_sales_merge.xlsx
+++ b/uploads/excel/bulk_upload_sales_merge.xlsx
@@ -52,9 +52,6 @@
     <t>Invoice Number</t>
   </si>
   <si>
-    <t>Actual Billing ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>TS-WF-219F-0030024</t>
+  </si>
+  <si>
+    <t>Settlement ID</t>
   </si>
 </sst>
 </file>
@@ -92,13 +92,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF444444"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -133,10 +133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="B3:D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,13 +467,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -486,14 +486,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1001</v>
@@ -503,25 +503,25 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
